--- a/Data/Yeast8_Modification.xlsx
+++ b/Data/Yeast8_Modification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92569DC3-0059-E743-BE84-2AFB5C194770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7010D-7D9A-8844-AE48-419FF612781C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="3700" windowWidth="27900" windowHeight="16020" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
+    <workbookView xWindow="340" yWindow="3740" windowWidth="27900" windowHeight="16020" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
   </bookViews>
   <sheets>
     <sheet name="New reactions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11837" uniqueCount="11827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11845" uniqueCount="11834">
   <si>
     <t>Description</t>
   </si>
@@ -35516,6 +35516,27 @@
   </si>
   <si>
     <t xml:space="preserve">iron(3+)[extracellular] &lt;=&gt; </t>
+  </si>
+  <si>
+    <t>rxn10</t>
+  </si>
+  <si>
+    <t>phenylpyruvate decarboxylase</t>
+  </si>
+  <si>
+    <t>3-(4-hydroxyphenyl)pyruvate[cytoplasm] + H+[cytoplasm] =&gt; (4-hydroxyphenyl)acetaldehyde[cytoplasm] + carbon&amp;dioxide[cytoplasm]</t>
+  </si>
+  <si>
+    <t>(4-hydroxyphenyl)acetaldehyde [cytoplasm]</t>
+  </si>
+  <si>
+    <t>(4-hydroxyphenyl)acetaldehyde</t>
+  </si>
+  <si>
+    <t>C8H8O2</t>
+  </si>
+  <si>
+    <t>CHEBI:15621</t>
   </si>
 </sst>
 </file>
@@ -35874,16 +35895,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063BEFC-4FD3-134C-989A-E924DACA1919}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="104.5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="111.5" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
@@ -36038,6 +36060,20 @@
       </c>
       <c r="C10" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11827</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11828</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11829</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4696</v>
       </c>
     </row>
   </sheetData>
@@ -36049,16 +36085,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045ECFB-D03A-4A42-81CA-D8583A59407B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -36231,6 +36269,23 @@
       </c>
       <c r="F8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11830</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11831</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11832</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11833</v>
       </c>
     </row>
   </sheetData>
